--- a/Revised/table4.xlsx
+++ b/Revised/table4.xlsx
@@ -5,22 +5,22 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Millennial_CA\17_JTRG_multimodal\JTRG_Multimodal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Millennial_CA\17_JTRG_multimodal\JTRG_Multimodal\Revised\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11700" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18720" windowHeight="10005" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="rawdata" sheetId="1" r:id="rId1"/>
     <sheet name="table4" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="106">
   <si>
     <t>IndMill</t>
   </si>
@@ -326,6 +326,22 @@
   <si>
     <t>Residents
 /acre</t>
+  </si>
+  <si>
+    <t>Alltransit 
+performance</t>
+  </si>
+  <si>
+    <t>IM-DM, DM-GX</t>
+  </si>
+  <si>
+    <t>IM-DM, IM-GX</t>
+  </si>
+  <si>
+    <t>IM-DM, IM-GX, DM-GX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Significance test at p=0.05 level. Weighted t-test is conducted for each variable. "IM-DM" indicates independent millennials differ significantly from dependent millennails, "IM-GX" indicates independent millennials differ significantly from Generation Xers, and "DM-GX" indicates dependent millennials differ significantly from Generation Xers. </t>
   </si>
 </sst>
 </file>
@@ -333,10 +349,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="166" formatCode="0.0"/>
-    <numFmt numFmtId="167" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -480,6 +496,12 @@
     <font>
       <i/>
       <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -848,22 +870,16 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
-    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="2"/>
     </xf>
-    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -871,11 +887,17 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1936,7 +1958,7 @@
         <v>9.59</v>
       </c>
       <c r="N12" s="9">
-        <f t="shared" ref="N11:N12" si="8">M3:M12/100</f>
+        <f t="shared" ref="N12" si="8">M3:M12/100</f>
         <v>9.5899999999999999E-2</v>
       </c>
       <c r="T12" s="6" t="s">
@@ -2997,24 +3019,25 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="8" width="12.7109375" style="10" customWidth="1"/>
+    <col min="1" max="1" width="22" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="6" customWidth="1"/>
+    <col min="3" max="8" width="16.7109375" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="17" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2"/>
-      <c r="B1" s="16" t="s">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B1" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="14" t="s">
         <v>100</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -3026,317 +3049,302 @@
       <c r="G1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="H1" s="14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="B3" s="18">
+      <c r="B3" s="15">
         <v>689.53700000000003</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="11">
         <v>6.6639999999999997</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="11">
         <v>16.093</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="11">
         <v>9.2970000000000006</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="11">
         <v>56.631999999999998</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="11">
         <v>26.855</v>
       </c>
-      <c r="H3" s="12">
-        <v>26.603999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H3" s="11">
+        <v>58.82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B4" s="18">
+      <c r="B4" s="15">
         <v>339.697</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="11">
         <v>4.4050000000000002</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="11">
         <v>13.013999999999999</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="11">
         <v>2.669</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="11">
         <v>46.808</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="11">
         <v>18.527999999999999</v>
       </c>
-      <c r="H4" s="12">
-        <v>16.286999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H4" s="11">
+        <v>50.53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="15">
         <v>945.76700000000005</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="11">
         <v>5.9</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="11">
         <v>14.535</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="11">
         <v>5.5140000000000002</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="11">
         <v>53.058</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="11">
         <v>23.731000000000002</v>
       </c>
-      <c r="H5" s="12">
-        <v>22.407</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H5" s="11">
+        <v>56.02</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+      <c r="B6" s="10"/>
+      <c r="C6" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="10"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B8" s="18">
+      <c r="B8" s="15">
         <v>302.202</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="11">
         <v>1.958</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="11">
         <v>5.4509999999999996</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="11">
         <v>3.61</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="11">
         <v>23.175000000000001</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="11">
         <v>29.155999999999999</v>
       </c>
-      <c r="H8" s="12">
-        <v>16.998999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H8" s="11">
+        <v>35.57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="B9" s="18">
+      <c r="B9" s="15">
         <v>420.86799999999999</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="11">
         <v>11.721</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="11">
         <v>21.335000000000001</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="11">
         <v>28.541</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="11">
         <v>25.594999999999999</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="11">
         <v>35.706000000000003</v>
       </c>
-      <c r="H9" s="12">
-        <v>29.632000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H9" s="11">
+        <v>67.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B10" s="18">
+      <c r="B10" s="15">
         <v>42.860999999999997</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="11">
         <v>3.7970000000000002</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="11">
         <v>9.86</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="11">
         <v>4.8040000000000003</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="11">
         <v>28.693000000000001</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="11">
         <v>23.585999999999999</v>
       </c>
-      <c r="H10" s="12">
-        <v>9.1649999999999991</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H10" s="11">
+        <v>34.369999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B11" s="18">
+      <c r="B11" s="15">
         <v>110.05</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="11">
         <v>2.5299999999999998</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="11">
         <v>5.3739999999999997</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="11">
         <v>16.07</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="11">
         <v>21.859000000000002</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="11">
         <v>32.950000000000003</v>
       </c>
-      <c r="H11" s="12">
-        <v>17.481999999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H11" s="11">
+        <v>42.91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B12" s="18">
+      <c r="B12" s="15">
         <v>175.66399999999999</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="11">
         <v>5.5640000000000001</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="11">
         <v>10.406000000000001</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="11">
         <v>10.544</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="11">
         <v>25.952000000000002</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="11">
         <v>27.658000000000001</v>
       </c>
-      <c r="H12" s="12">
-        <v>20.385000000000002</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H12" s="11">
+        <v>57.32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="B13" s="18">
+      <c r="B13" s="15">
         <v>923.35400000000004</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="11">
         <v>6.9489999999999998</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="11">
         <v>14.241</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="11">
         <v>18.542999999999999</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="11">
         <v>25.244</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="11">
         <v>31.108000000000001</v>
       </c>
-      <c r="H13" s="12">
-        <v>26.065000000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>67</v>
-      </c>
+      <c r="H13" s="11">
+        <v>59.84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A14:H14"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>